--- a/data/trans_orig/P04B3_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531BC8E7-A27E-462D-9D7D-DBFA03863E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7314646-86E4-41C9-88FC-D963A343859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{198F816A-77D6-4089-BAEE-5C5DF1678A2D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C589760D-AF87-4211-AC82-21DD61667F54}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="337">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el verano como un problema en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,967 +74,976 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>A veces</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>A veces</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>14,16%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>18,4%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>16,67%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>42,39%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1449,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06AA3E7-F215-4D8F-8D2A-4BD81785A353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058C1235-0E3E-46E3-A5E9-D327BE054B6B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1836,7 +1845,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -1845,13 +1854,13 @@
         <v>14159</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -1860,13 +1869,13 @@
         <v>19044</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1890,13 @@
         <v>40239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -1896,13 +1905,13 @@
         <v>54225</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -1911,13 +1920,13 @@
         <v>94465</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1941,13 @@
         <v>218187</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -1947,13 +1956,13 @@
         <v>202118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>414</v>
@@ -1962,13 +1971,13 @@
         <v>420305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1992,13 @@
         <v>255985</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>363</v>
@@ -1998,13 +2007,13 @@
         <v>284064</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>551</v>
@@ -2013,13 +2022,13 @@
         <v>540049</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2084,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2087,13 +2096,13 @@
         <v>50230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -2102,13 +2111,13 @@
         <v>45354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -2117,13 +2126,13 @@
         <v>95583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2147,13 @@
         <v>40858</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>96</v>
@@ -2153,13 +2162,13 @@
         <v>66016</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>148</v>
@@ -2168,13 +2177,13 @@
         <v>106874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2198,13 @@
         <v>45692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -2204,13 +2213,13 @@
         <v>31460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -2219,13 +2228,13 @@
         <v>77152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2249,13 @@
         <v>184425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>323</v>
@@ -2255,13 +2264,13 @@
         <v>230454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>523</v>
@@ -2270,13 +2279,13 @@
         <v>414879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2341,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2353,13 @@
         <v>36849</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -2359,13 +2368,13 @@
         <v>60614</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -2374,13 +2383,13 @@
         <v>97463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2404,13 @@
         <v>47197</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -2410,13 +2419,13 @@
         <v>47215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -2425,13 +2434,13 @@
         <v>94412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2455,13 @@
         <v>44586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
@@ -2461,13 +2470,13 @@
         <v>55514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>135</v>
@@ -2476,13 +2485,13 @@
         <v>100099</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2506,13 @@
         <v>193608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>353</v>
@@ -2512,13 +2521,13 @@
         <v>265054</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -2527,13 +2536,13 @@
         <v>458662</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2598,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2601,13 +2610,13 @@
         <v>46593</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
@@ -2616,13 +2625,13 @@
         <v>36661</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -2631,13 +2640,13 @@
         <v>83254</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2661,13 @@
         <v>8246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2667,13 +2676,13 @@
         <v>8137</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2682,13 +2691,13 @@
         <v>16382</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2712,13 @@
         <v>1235</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2718,13 +2727,13 @@
         <v>5248</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2733,13 +2742,13 @@
         <v>6482</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2763,13 @@
         <v>140674</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>390</v>
@@ -2769,13 +2778,13 @@
         <v>209468</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -2784,13 +2793,13 @@
         <v>350141</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2855,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2867,13 @@
         <v>47282</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -2873,13 +2882,13 @@
         <v>35748</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
@@ -2888,13 +2897,13 @@
         <v>83029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2918,13 @@
         <v>39401</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>72</v>
@@ -2924,13 +2933,13 @@
         <v>37076</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>123</v>
@@ -2939,13 +2948,13 @@
         <v>76477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2969,13 @@
         <v>30234</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -2975,13 +2984,13 @@
         <v>37046</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>109</v>
@@ -2990,13 +2999,13 @@
         <v>67280</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3020,13 @@
         <v>160307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>261</v>
@@ -3026,13 +3035,13 @@
         <v>165752</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>467</v>
@@ -3041,13 +3050,13 @@
         <v>326059</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3112,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3124,13 @@
         <v>76705</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="H34" s="7">
         <v>144</v>
@@ -3130,10 +3139,10 @@
         <v>101782</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>237</v>
@@ -3199,10 +3208,10 @@
         <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3226,13 @@
         <v>148167</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>246</v>
@@ -3232,13 +3241,13 @@
         <v>177498</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>387</v>
@@ -3247,10 +3256,10 @@
         <v>325665</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>257</v>
@@ -3378,7 +3387,7 @@
         <v>269</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="H39" s="7">
         <v>782</v>
@@ -3387,10 +3396,10 @@
         <v>646303</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>272</v>
@@ -3510,7 +3519,7 @@
         <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3534,13 @@
         <v>93898</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -3540,13 +3549,13 @@
         <v>38798</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>84</v>
@@ -3555,13 +3564,13 @@
         <v>132696</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3638,13 @@
         <v>872273</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H44" s="7">
         <v>1240</v>
@@ -3644,13 +3653,13 @@
         <v>944238</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>2133</v>
@@ -3659,13 +3668,13 @@
         <v>1816511</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,10 +3692,10 @@
         <v>279</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H45" s="7">
         <v>762</v>
@@ -3695,10 +3704,10 @@
         <v>495012</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>314</v>
@@ -3734,10 +3743,10 @@
         <v>318</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>825</v>
@@ -3746,13 +3755,13 @@
         <v>590477</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>94</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>1352</v>
@@ -3761,13 +3770,13 @@
         <v>1162728</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3791,13 @@
         <v>1508578</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>71</v>
+        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>2535</v>
@@ -3797,13 +3806,13 @@
         <v>1803366</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M47" s="7">
         <v>4031</v>
@@ -3812,13 +3821,13 @@
         <v>3311943</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3883,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B3_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7314646-86E4-41C9-88FC-D963A343859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A23A333-1A18-44C5-8931-FCCD960331B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C589760D-AF87-4211-AC82-21DD61667F54}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A80F1F11-3061-4398-9801-A71657EFE49A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el verano como un problema en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -71,979 +71,982 @@
     <t>A menudo</t>
   </si>
   <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>A veces</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>A veces</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1458,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058C1235-0E3E-46E3-A5E9-D327BE054B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C2231A-C38D-46F6-9188-FF8693FF8A58}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>7502</v>
+        <v>9513</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1594,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>3618</v>
+        <v>3737</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1609,7 +1612,7 @@
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>11120</v>
+        <v>13250</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1630,7 +1633,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>40452</v>
+        <v>47212</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1645,7 +1648,7 @@
         <v>94</v>
       </c>
       <c r="I5" s="7">
-        <v>41727</v>
+        <v>44224</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1660,7 +1663,7 @@
         <v>155</v>
       </c>
       <c r="N5" s="7">
-        <v>82179</v>
+        <v>91436</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1681,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>9578</v>
+        <v>10827</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1696,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>8915</v>
+        <v>9417</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1711,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="N6" s="7">
-        <v>18493</v>
+        <v>20244</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1732,7 +1735,7 @@
         <v>244</v>
       </c>
       <c r="D7" s="7">
-        <v>202766</v>
+        <v>243891</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1747,7 +1750,7 @@
         <v>416</v>
       </c>
       <c r="I7" s="7">
-        <v>217143</v>
+        <v>232257</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1762,7 +1765,7 @@
         <v>660</v>
       </c>
       <c r="N7" s="7">
-        <v>419908</v>
+        <v>476147</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1783,7 +1786,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1798,7 +1801,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1813,7 +1816,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1836,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>4886</v>
+        <v>4652</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1851,7 +1854,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>14159</v>
+        <v>13190</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1866,16 +1869,16 @@
         <v>24</v>
       </c>
       <c r="N9" s="7">
-        <v>19044</v>
+        <v>17843</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,46 +1890,46 @@
         <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>40239</v>
+        <v>39424</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>54225</v>
+        <v>50119</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>94465</v>
+        <v>89543</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,46 +1941,46 @@
         <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>218187</v>
+        <v>219542</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>202118</v>
+        <v>187804</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>414</v>
       </c>
       <c r="N11" s="7">
-        <v>420305</v>
+        <v>407346</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,46 +1992,46 @@
         <v>188</v>
       </c>
       <c r="D12" s="7">
-        <v>255985</v>
+        <v>254772</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>363</v>
       </c>
       <c r="I12" s="7">
-        <v>284064</v>
+        <v>263855</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>551</v>
       </c>
       <c r="N12" s="7">
-        <v>540049</v>
+        <v>518627</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,7 +2043,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2055,7 +2058,7 @@
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2070,7 +2073,7 @@
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2093,46 +2096,46 @@
         <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>50230</v>
+        <v>49093</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
       </c>
       <c r="I14" s="7">
-        <v>45354</v>
+        <v>42473</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
       </c>
       <c r="N14" s="7">
-        <v>95583</v>
+        <v>91566</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,46 +2147,46 @@
         <v>52</v>
       </c>
       <c r="D15" s="7">
-        <v>40858</v>
+        <v>39684</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>96</v>
       </c>
       <c r="I15" s="7">
-        <v>66016</v>
+        <v>62337</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>106874</v>
+        <v>102021</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,46 +2198,46 @@
         <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>45692</v>
+        <v>44879</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>31460</v>
+        <v>29306</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
       </c>
       <c r="N16" s="7">
-        <v>77152</v>
+        <v>74185</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,46 +2249,46 @@
         <v>200</v>
       </c>
       <c r="D17" s="7">
-        <v>184425</v>
+        <v>181378</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>323</v>
       </c>
       <c r="I17" s="7">
-        <v>230454</v>
+        <v>215012</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>523</v>
       </c>
       <c r="N17" s="7">
-        <v>414879</v>
+        <v>396389</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,7 +2300,7 @@
         <v>359</v>
       </c>
       <c r="D18" s="7">
-        <v>321204</v>
+        <v>315034</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2312,7 +2315,7 @@
         <v>536</v>
       </c>
       <c r="I18" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2327,7 +2330,7 @@
         <v>895</v>
       </c>
       <c r="N18" s="7">
-        <v>694488</v>
+        <v>664161</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2341,7 +2344,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2350,46 +2353,46 @@
         <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>36849</v>
+        <v>35857</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
       </c>
       <c r="I19" s="7">
-        <v>60614</v>
+        <v>111782</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
       </c>
       <c r="N19" s="7">
-        <v>97463</v>
+        <v>147640</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,46 +2404,46 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>47197</v>
+        <v>45312</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>47215</v>
+        <v>43877</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
       </c>
       <c r="N20" s="7">
-        <v>94412</v>
+        <v>89188</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,46 +2455,46 @@
         <v>46</v>
       </c>
       <c r="D21" s="7">
-        <v>44586</v>
+        <v>43556</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
       </c>
       <c r="I21" s="7">
-        <v>55514</v>
+        <v>51480</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>135</v>
       </c>
       <c r="N21" s="7">
-        <v>100099</v>
+        <v>95037</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,46 +2506,46 @@
         <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>193608</v>
+        <v>187832</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>353</v>
       </c>
       <c r="I22" s="7">
-        <v>265054</v>
+        <v>268417</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
       </c>
       <c r="N22" s="7">
-        <v>458662</v>
+        <v>456248</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2557,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2569,7 +2572,7 @@
         <v>598</v>
       </c>
       <c r="I23" s="7">
-        <v>428397</v>
+        <v>475556</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2584,7 +2587,7 @@
         <v>890</v>
       </c>
       <c r="N23" s="7">
-        <v>750637</v>
+        <v>788113</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2598,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2607,46 +2610,46 @@
         <v>64</v>
       </c>
       <c r="D24" s="7">
-        <v>46593</v>
+        <v>41931</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>76</v>
       </c>
       <c r="I24" s="7">
-        <v>36661</v>
+        <v>32517</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
       </c>
       <c r="N24" s="7">
-        <v>83254</v>
+        <v>74448</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,46 +2661,46 @@
         <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>8246</v>
+        <v>7522</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>8137</v>
+        <v>7460</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>16382</v>
+        <v>14982</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,46 +2712,46 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1235</v>
+        <v>1114</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>5248</v>
+        <v>4850</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>6482</v>
+        <v>5964</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,46 +2763,46 @@
         <v>202</v>
       </c>
       <c r="D27" s="7">
-        <v>140674</v>
+        <v>128175</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>390</v>
       </c>
       <c r="I27" s="7">
-        <v>209468</v>
+        <v>213951</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
       </c>
       <c r="N27" s="7">
-        <v>350141</v>
+        <v>342127</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2814,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2826,7 +2829,7 @@
         <v>495</v>
       </c>
       <c r="I28" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2841,7 +2844,7 @@
         <v>774</v>
       </c>
       <c r="N28" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2864,46 +2867,46 @@
         <v>69</v>
       </c>
       <c r="D29" s="7">
-        <v>47282</v>
+        <v>45665</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
       </c>
       <c r="I29" s="7">
-        <v>35748</v>
+        <v>33065</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
       </c>
       <c r="N29" s="7">
-        <v>83029</v>
+        <v>78730</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,46 +2918,46 @@
         <v>51</v>
       </c>
       <c r="D30" s="7">
-        <v>39401</v>
+        <v>38782</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>72</v>
       </c>
       <c r="I30" s="7">
-        <v>37076</v>
+        <v>34745</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>123</v>
       </c>
       <c r="N30" s="7">
-        <v>76477</v>
+        <v>73527</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,46 +2969,46 @@
         <v>45</v>
       </c>
       <c r="D31" s="7">
-        <v>30234</v>
+        <v>29162</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
       </c>
       <c r="I31" s="7">
-        <v>37046</v>
+        <v>34675</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="M31" s="7">
         <v>109</v>
       </c>
       <c r="N31" s="7">
-        <v>67280</v>
+        <v>63837</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,46 +3020,46 @@
         <v>206</v>
       </c>
       <c r="D32" s="7">
-        <v>160307</v>
+        <v>156027</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>261</v>
       </c>
       <c r="I32" s="7">
-        <v>165752</v>
+        <v>154571</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>467</v>
       </c>
       <c r="N32" s="7">
-        <v>326059</v>
+        <v>310598</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3071,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3083,7 +3086,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3098,7 +3101,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3121,28 +3124,28 @@
         <v>72</v>
       </c>
       <c r="D34" s="7">
-        <v>76705</v>
+        <v>76077</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H34" s="7">
         <v>144</v>
       </c>
       <c r="I34" s="7">
-        <v>101782</v>
+        <v>94489</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>237</v>
@@ -3151,7 +3154,7 @@
         <v>216</v>
       </c>
       <c r="N34" s="7">
-        <v>178487</v>
+        <v>170566</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>238</v>
@@ -3172,7 +3175,7 @@
         <v>120</v>
       </c>
       <c r="D35" s="7">
-        <v>125646</v>
+        <v>124074</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>241</v>
@@ -3187,7 +3190,7 @@
         <v>185</v>
       </c>
       <c r="I35" s="7">
-        <v>130119</v>
+        <v>121460</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>244</v>
@@ -3202,7 +3205,7 @@
         <v>305</v>
       </c>
       <c r="N35" s="7">
-        <v>255765</v>
+        <v>245534</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>247</v>
@@ -3223,7 +3226,7 @@
         <v>141</v>
       </c>
       <c r="D36" s="7">
-        <v>148167</v>
+        <v>146629</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>250</v>
@@ -3238,7 +3241,7 @@
         <v>246</v>
       </c>
       <c r="I36" s="7">
-        <v>177498</v>
+        <v>165835</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>253</v>
@@ -3253,16 +3256,16 @@
         <v>387</v>
       </c>
       <c r="N36" s="7">
-        <v>325665</v>
+        <v>312464</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,46 +3277,46 @@
         <v>264</v>
       </c>
       <c r="D37" s="7">
-        <v>276915</v>
+        <v>277170</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>382</v>
       </c>
       <c r="I37" s="7">
-        <v>392633</v>
+        <v>465475</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>646</v>
       </c>
       <c r="N37" s="7">
-        <v>669549</v>
+        <v>742645</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3328,7 @@
         <v>597</v>
       </c>
       <c r="D38" s="7">
-        <v>627434</v>
+        <v>623950</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3340,7 +3343,7 @@
         <v>957</v>
       </c>
       <c r="I38" s="7">
-        <v>802032</v>
+        <v>847259</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3355,7 +3358,7 @@
         <v>1554</v>
       </c>
       <c r="N38" s="7">
-        <v>1429467</v>
+        <v>1471209</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3378,46 +3381,46 @@
         <v>573</v>
       </c>
       <c r="D39" s="7">
-        <v>602226</v>
+        <v>509193</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>782</v>
       </c>
       <c r="I39" s="7">
-        <v>646303</v>
+        <v>533303</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>1355</v>
       </c>
       <c r="N39" s="7">
-        <v>1248529</v>
+        <v>1042497</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,46 +3432,46 @@
         <v>81</v>
       </c>
       <c r="D40" s="7">
-        <v>88731</v>
+        <v>75353</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>140</v>
       </c>
       <c r="I40" s="7">
-        <v>110496</v>
+        <v>92532</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>221</v>
       </c>
       <c r="N40" s="7">
-        <v>199228</v>
+        <v>167885</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,46 +3483,46 @@
         <v>71</v>
       </c>
       <c r="D41" s="7">
-        <v>74573</v>
+        <v>63424</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>92</v>
       </c>
       <c r="I41" s="7">
-        <v>72678</v>
+        <v>59916</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>163</v>
       </c>
       <c r="N41" s="7">
-        <v>147251</v>
+        <v>123340</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3534,13 @@
         <v>37</v>
       </c>
       <c r="D42" s="7">
-        <v>93898</v>
+        <v>280750</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>296</v>
@@ -3546,7 +3549,7 @@
         <v>47</v>
       </c>
       <c r="I42" s="7">
-        <v>38798</v>
+        <v>31821</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>297</v>
@@ -3561,7 +3564,7 @@
         <v>84</v>
       </c>
       <c r="N42" s="7">
-        <v>132696</v>
+        <v>312571</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>300</v>
@@ -3582,7 +3585,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3597,7 +3600,7 @@
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>868275</v>
+        <v>717572</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3612,7 +3615,7 @@
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1727703</v>
+        <v>1646293</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3635,7 +3638,7 @@
         <v>893</v>
       </c>
       <c r="D44" s="7">
-        <v>872273</v>
+        <v>771982</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>303</v>
@@ -3650,7 +3653,7 @@
         <v>1240</v>
       </c>
       <c r="I44" s="7">
-        <v>944238</v>
+        <v>864557</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>306</v>
@@ -3665,7 +3668,7 @@
         <v>2133</v>
       </c>
       <c r="N44" s="7">
-        <v>1816511</v>
+        <v>1636539</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>309</v>
@@ -3674,7 +3677,7 @@
         <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,46 +3689,46 @@
         <v>457</v>
       </c>
       <c r="D45" s="7">
-        <v>430770</v>
+        <v>417364</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H45" s="7">
         <v>762</v>
       </c>
       <c r="I45" s="7">
-        <v>495012</v>
+        <v>456754</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M45" s="7">
         <v>1219</v>
       </c>
       <c r="N45" s="7">
-        <v>925782</v>
+        <v>874117</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,46 +3740,46 @@
         <v>527</v>
       </c>
       <c r="D46" s="7">
-        <v>572251</v>
+        <v>559132</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>825</v>
       </c>
       <c r="I46" s="7">
-        <v>590477</v>
+        <v>543285</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>1352</v>
       </c>
       <c r="N46" s="7">
-        <v>1162728</v>
+        <v>1102417</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,46 +3791,46 @@
         <v>1496</v>
       </c>
       <c r="D47" s="7">
-        <v>1508578</v>
+        <v>1709993</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>2535</v>
       </c>
       <c r="I47" s="7">
-        <v>1803366</v>
+        <v>1845359</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>4031</v>
       </c>
       <c r="N47" s="7">
-        <v>3311943</v>
+        <v>3555352</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,7 +3842,7 @@
         <v>3373</v>
       </c>
       <c r="D48" s="7">
-        <v>3383872</v>
+        <v>3458471</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3854,7 +3857,7 @@
         <v>5362</v>
       </c>
       <c r="I48" s="7">
-        <v>3833092</v>
+        <v>3709954</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3869,7 +3872,7 @@
         <v>8735</v>
       </c>
       <c r="N48" s="7">
-        <v>7216964</v>
+        <v>7168425</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3883,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
